--- a/Documents/stuktura.xlsx
+++ b/Documents/stuktura.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2013\Projects\Work\IDS RailWay\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\IDS RailWay\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED44DE3-2254-4117-A866-A6E1F030063B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="OTPR" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,14 @@
     <sheet name="SHTEMPEL" sheetId="6" r:id="rId5"/>
     <sheet name="SPEC_COND" sheetId="7" r:id="rId6"/>
     <sheet name="TEXT" sheetId="8" r:id="rId7"/>
-    <sheet name="Лист2" sheetId="3" r:id="rId8"/>
+    <sheet name="VAGON" sheetId="9" r:id="rId8"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OTPR!$C$1:$O$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ROUTE!$C$1:$Q$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TEXT!$C$1:$P$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">VAGON!$B$1:$P$96</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4606" uniqueCount="592">
   <si>
     <t>date_finish</t>
   </si>
@@ -1252,12 +1253,573 @@
   </si>
   <si>
     <t>outside_payer_code</t>
+  </si>
+  <si>
+    <t>Атрибути тега VAGON</t>
+  </si>
+  <si>
+    <t>calc_weight</t>
+  </si>
+  <si>
+    <t>Розрахункова вага вантажу (кг)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>etsng_old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код вантажу по ЄТСНВ, </t>
+  </si>
+  <si>
+    <t>EtsngCode</t>
+  </si>
+  <si>
+    <t>gng_old</t>
+  </si>
+  <si>
+    <t>Код вантажу по ГНВ, з-під якого був вивантажений вагон</t>
+  </si>
+  <si>
+    <t>GngCode</t>
+  </si>
+  <si>
+    <t>gruzp</t>
+  </si>
+  <si>
+    <t>Вантажопід'ємність вагону (т)</t>
+  </si>
+  <si>
+    <t>N_6_1</t>
+  </si>
+  <si>
+    <t>is_removed</t>
+  </si>
+  <si>
+    <t>Ознака викреслення вагона з перевізного документа при відчепленні</t>
+  </si>
+  <si>
+    <t>RemovedWagon</t>
+  </si>
+  <si>
+    <t>ostat_davl</t>
+  </si>
+  <si>
+    <t>Залишковий тиск у котлу (МПа)</t>
+  </si>
+  <si>
+    <t>N_3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код власника вагону </t>
+  </si>
+  <si>
+    <t>kod_firm_owner</t>
+  </si>
+  <si>
+    <t>Код компанії — власниці вагона</t>
+  </si>
+  <si>
+    <t>C_6</t>
+  </si>
+  <si>
+    <t>kol_conductor</t>
+  </si>
+  <si>
+    <t>Кількість провідників</t>
+  </si>
+  <si>
+    <t>kol_os</t>
+  </si>
+  <si>
+    <t>Кількість вісей</t>
+  </si>
+  <si>
+    <t>Заводський номер засобу вагоно-вимірювальної техніки</t>
+  </si>
+  <si>
+    <t>name_firm_owner</t>
+  </si>
+  <si>
+    <t>Найменування компанії — власниці вагона</t>
+  </si>
+  <si>
+    <t>C_255</t>
+  </si>
+  <si>
+    <t>negab_do</t>
+  </si>
+  <si>
+    <t>Індекс негабаритності додаткового обладнання</t>
+  </si>
+  <si>
+    <t>negab_rs</t>
+  </si>
+  <si>
+    <t>Індекс негабаритності рухомого складу</t>
+  </si>
+  <si>
+    <t>negab_v</t>
+  </si>
+  <si>
+    <t>Індекс негабаритності вантажу</t>
+  </si>
+  <si>
+    <t>nom_ref</t>
+  </si>
+  <si>
+    <t>Номер реф. секції</t>
+  </si>
+  <si>
+    <t>nomer</t>
+  </si>
+  <si>
+    <t>Номер вагону (Обов'язкове поле для всіх відправок, окрім контейнерних)</t>
+  </si>
+  <si>
+    <t>C_12</t>
+  </si>
+  <si>
+    <t>pour_off_date</t>
+  </si>
+  <si>
+    <t>Дата злиття цистерни</t>
+  </si>
+  <si>
+    <t>pr_sobst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ознака власності вагону </t>
+  </si>
+  <si>
+    <t>pr_zam</t>
+  </si>
+  <si>
+    <t>Ознака заміни вагону</t>
+  </si>
+  <si>
+    <t>promoted_by</t>
+  </si>
+  <si>
+    <t>Ознака надання вагону для перевезення</t>
+  </si>
+  <si>
+    <t>VAGONpromoted_by</t>
+  </si>
+  <si>
+    <t>remove_weight</t>
+  </si>
+  <si>
+    <t>Вага знімного устаткування (кг)</t>
+  </si>
+  <si>
+    <t>rod_vag</t>
+  </si>
+  <si>
+    <t>Род вагону</t>
+  </si>
+  <si>
+    <t>roller_weight</t>
+  </si>
+  <si>
+    <t>Вага роллерів (кг)</t>
+  </si>
+  <si>
+    <t>tank_state</t>
+  </si>
+  <si>
+    <t>Стан цистерни після перевезення небезпечного вантажу</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>Ознака використання вагону</t>
+  </si>
+  <si>
+    <t>usl_tip</t>
+  </si>
+  <si>
+    <t>Тип цистерни</t>
+  </si>
+  <si>
+    <t>u_tara</t>
+  </si>
+  <si>
+    <t>Вага уточненої тари вагону (кг)</t>
+  </si>
+  <si>
+    <t>ves_tary_arc</t>
+  </si>
+  <si>
+    <t>Вага тари вагону (кг)</t>
+  </si>
+  <si>
+    <t>Код залізниці приписки вагона</t>
+  </si>
+  <si>
+    <t>Атрибути тега PEREGR_V</t>
+  </si>
+  <si>
+    <t>esr_per</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код станції перевантаження </t>
+  </si>
+  <si>
+    <t>kol_devices</t>
+  </si>
+  <si>
+    <t>Кількість місць багатооборотних перевізних пристосувань</t>
+  </si>
+  <si>
+    <t>kol_pac</t>
+  </si>
+  <si>
+    <t>Кількість місць після перевантаження для вагона</t>
+  </si>
+  <si>
+    <t>kol_packet</t>
+  </si>
+  <si>
+    <t>Кількість пакетів</t>
+  </si>
+  <si>
+    <t>nom_pereg</t>
+  </si>
+  <si>
+    <t>Номер вагону, з якого був перевантажений вантаж</t>
+  </si>
+  <si>
+    <t>vesg</t>
+  </si>
+  <si>
+    <t>Вага вантажу нетто (кг)</t>
+  </si>
+  <si>
+    <t>Атрибути тега PAY_V</t>
+  </si>
+  <si>
+    <t>ДD</t>
+  </si>
+  <si>
+    <t>Атрибути тега COLLECT_V</t>
+  </si>
+  <si>
+    <t>ballast</t>
+  </si>
+  <si>
+    <t>Вміст баласту (%)</t>
+  </si>
+  <si>
+    <t>N_3_1</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>Клас небезпечності вантажу</t>
+  </si>
+  <si>
+    <t>DangerCode</t>
+  </si>
+  <si>
+    <t>danger_ak_pr</t>
+  </si>
+  <si>
+    <t>Ознака прикладеної аварійної картки</t>
+  </si>
+  <si>
+    <t>COLLECT_ak_pr</t>
+  </si>
+  <si>
+    <t>danger_kod</t>
+  </si>
+  <si>
+    <t>Код небезпеки вантажу</t>
+  </si>
+  <si>
+    <t>danger_proper_name</t>
+  </si>
+  <si>
+    <t>Належне найменування небезпечного вантажу</t>
+  </si>
+  <si>
+    <t>C_550</t>
+  </si>
+  <si>
+    <t>danger_signs</t>
+  </si>
+  <si>
+    <t>Знаки небезпеки</t>
+  </si>
+  <si>
+    <t>danger_sng</t>
+  </si>
+  <si>
+    <t>Код небезпечного вантажу для транзиту згідно з Дод. 4 ТП СНД</t>
+  </si>
+  <si>
+    <t>danger_text</t>
+  </si>
+  <si>
+    <t>Найменування небезпечного вантажу та інформація про небезпечний вантаж</t>
+  </si>
+  <si>
+    <t>date_strah_dog</t>
+  </si>
+  <si>
+    <t>Дата початку дії страхового договору</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>Густина</t>
+  </si>
+  <si>
+    <t>N_1_6</t>
+  </si>
+  <si>
+    <t>density20deg</t>
+  </si>
+  <si>
+    <t>Густина за температури 20°С (г/см³)</t>
+  </si>
+  <si>
+    <t>N_7_6</t>
+  </si>
+  <si>
+    <t>kod_etsng</t>
+  </si>
+  <si>
+    <t>Код вантажу по ЄТСНВ</t>
+  </si>
+  <si>
+    <t>kod_gng</t>
+  </si>
+  <si>
+    <t>Код вантажу по ГНВ (Обов'язкове поле для міжнародних відправок)</t>
+  </si>
+  <si>
+    <t>Кількість місць упаковки</t>
+  </si>
+  <si>
+    <t>mark_gr</t>
+  </si>
+  <si>
+    <t>Марки вантажу (для збірних відправок)</t>
+  </si>
+  <si>
+    <t>metod_gr</t>
+  </si>
+  <si>
+    <t>Код способу визначення маси вантажу (для збірних відправок)</t>
+  </si>
+  <si>
+    <t>name_etsng</t>
+  </si>
+  <si>
+    <t>Найменування вантажу по ЄТСНВ</t>
+  </si>
+  <si>
+    <t>name_gng</t>
+  </si>
+  <si>
+    <t>Найменування вантажу по ГНВ (Обов'язкове поле для міжнародних відправок)</t>
+  </si>
+  <si>
+    <t>name_komp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Найменування страхової компанії </t>
+  </si>
+  <si>
+    <t>negab_gr</t>
+  </si>
+  <si>
+    <t>Індекс негабаритності вантажу (для збірних відправок)</t>
+  </si>
+  <si>
+    <t>nhm_id</t>
+  </si>
+  <si>
+    <t>NHM код вантажу (Обов'язкове поле для ЦІМ та ЦІМ/СМГС)</t>
+  </si>
+  <si>
+    <t>NhmCode</t>
+  </si>
+  <si>
+    <t>nhm_name</t>
+  </si>
+  <si>
+    <t>nhm_name_de</t>
+  </si>
+  <si>
+    <t>nom_card</t>
+  </si>
+  <si>
+    <t>Номер аварійної картки</t>
+  </si>
+  <si>
+    <t>DisasterCardNumber</t>
+  </si>
+  <si>
+    <t>nom_oon</t>
+  </si>
+  <si>
+    <t>Номер ООН небезпечного вантажу</t>
+  </si>
+  <si>
+    <t>UNCode</t>
+  </si>
+  <si>
+    <t>nom_polis</t>
+  </si>
+  <si>
+    <t>Номер страхового полісу</t>
+  </si>
+  <si>
+    <t>nomer_gr</t>
+  </si>
+  <si>
+    <t>Номери вантажу (для збірних відправок)</t>
+  </si>
+  <si>
+    <t>p_danger</t>
+  </si>
+  <si>
+    <t>Підклас небезпечності вантажу</t>
+  </si>
+  <si>
+    <t>pac</t>
+  </si>
+  <si>
+    <t>Код роду упаковки</t>
+  </si>
+  <si>
+    <t>packing_group</t>
+  </si>
+  <si>
+    <t>Група пакування небезпечного вантажу</t>
+  </si>
+  <si>
+    <t>pr_packet</t>
+  </si>
+  <si>
+    <t>Ознака перевезення вантажу в пакетах</t>
+  </si>
+  <si>
+    <t>COLLECTpr_packet</t>
+  </si>
+  <si>
+    <t>sing_gr</t>
+  </si>
+  <si>
+    <t>Знаки вантажу (для збірних відправок)</t>
+  </si>
+  <si>
+    <t>strah_komp</t>
+  </si>
+  <si>
+    <t>Умовний код страхової компанії</t>
+  </si>
+  <si>
+    <t>tank_level</t>
+  </si>
+  <si>
+    <t>Висота наливу</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>Температура</t>
+  </si>
+  <si>
+    <t>waterlevel</t>
+  </si>
+  <si>
+    <t>Рівень підтоварної води (см)</t>
+  </si>
+  <si>
+    <t>weight_place_br_gr</t>
+  </si>
+  <si>
+    <t>Стандартна маса одного місця брутто (кг) (для збірних відправок)</t>
+  </si>
+  <si>
+    <t>weight_place_net_gr</t>
+  </si>
+  <si>
+    <t>Стандартна маса одного місця нетто (кг) (для збірних відправок)</t>
+  </si>
+  <si>
+    <t>zvvt_num</t>
+  </si>
+  <si>
+    <t>Заводський номер засобу вагоно-вимірювальної техніки (для збірних відправок)</t>
+  </si>
+  <si>
+    <t>Найменування вантажу NHM на російській мові (Обов'язкове поле для ЦІМ та ЦІМ/СМГС)</t>
+  </si>
+  <si>
+    <t>Найменування вантажу NHM на другій мові документа (Обов'язкове поле для ЦІМ та ЦІМ/СМГС)</t>
+  </si>
+  <si>
+    <t>Атрибути тега TOOLS</t>
+  </si>
+  <si>
+    <t>ves_tools</t>
+  </si>
+  <si>
+    <t>Вага пристроїв (кг)</t>
+  </si>
+  <si>
+    <t>Атрибути тега ZPU_V</t>
+  </si>
+  <si>
+    <t>esr_zpu</t>
+  </si>
+  <si>
+    <t>Код станції накладання пломби або ЗПП</t>
+  </si>
+  <si>
+    <t>nom_zpu</t>
+  </si>
+  <si>
+    <t>Номер ЗПП</t>
+  </si>
+  <si>
+    <t>sobst_zpu</t>
+  </si>
+  <si>
+    <t>Ознака власності пломб або ЗПП</t>
+  </si>
+  <si>
+    <t>SealOwnerKind</t>
+  </si>
+  <si>
+    <t>Код залізниці накладання пломби</t>
+  </si>
+  <si>
+    <t>zpu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код виду ЗПП </t>
+  </si>
+  <si>
+    <t>SealKind</t>
+  </si>
+  <si>
+    <t>double?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1610,7 +2172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4483,14 +5045,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:O61" xr:uid="{F82CBE3C-9C9A-4123-AD44-635DB3B269C4}"/>
+  <autoFilter ref="C1:O61"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624B8E9E-D51A-4AC3-8A9F-17118D88E8FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5458,7 +6020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E7E659-57A6-4A03-B17F-04BE348A70C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6746,7 +7308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46428BCF-7276-4991-99B6-62A81D9CCD12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8432,13 +8994,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:Q33" xr:uid="{2F47C726-A690-4134-9CAD-C976E60FB905}"/>
+  <autoFilter ref="C1:Q33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05158F1-E642-4DA4-BB41-85783F9A0787}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8647,7 +9209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C703A6D5-AC9C-4CA0-95B6-5E4D8CB020B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8906,11 +9468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720DC1F6-C7B1-4156-8819-A273741FD6E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10310,16 +10872,4765 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:P28" xr:uid="{327CDFE4-96EF-4A48-B536-FEFB4E9FB2AF}"/>
+  <autoFilter ref="C1:P28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9891DB-D860-440E-9141-85C0495080DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G3" t="s">
+        <v>411</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G4" t="s">
+        <v>414</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" t="s">
+        <v>416</v>
+      </c>
+      <c r="G5" t="s">
+        <v>417</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G6" t="s">
+        <v>420</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" t="s">
+        <v>426</v>
+      </c>
+      <c r="G9" t="s">
+        <v>427</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="s">
+        <v>428</v>
+      </c>
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" t="s">
+        <v>429</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" t="s">
+        <v>432</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" t="s">
+        <v>434</v>
+      </c>
+      <c r="G13" t="s">
+        <v>435</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
+        <v>436</v>
+      </c>
+      <c r="D14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" t="s">
+        <v>437</v>
+      </c>
+      <c r="G14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F15" t="s">
+        <v>439</v>
+      </c>
+      <c r="G15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" t="s">
+        <v>441</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" t="s">
+        <v>443</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
+        <v>444</v>
+      </c>
+      <c r="D18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" t="s">
+        <v>445</v>
+      </c>
+      <c r="G18" t="s">
+        <v>446</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>447</v>
+      </c>
+      <c r="D19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" t="s">
+        <v>268</v>
+      </c>
+      <c r="F19" t="s">
+        <v>448</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" t="s">
+        <v>449</v>
+      </c>
+      <c r="D20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" t="s">
+        <v>450</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" t="s">
+        <v>451</v>
+      </c>
+      <c r="D21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" t="s">
+        <v>452</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22" t="s">
+        <v>454</v>
+      </c>
+      <c r="G22" t="s">
+        <v>455</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>456</v>
+      </c>
+      <c r="D23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" t="s">
+        <v>268</v>
+      </c>
+      <c r="F23" t="s">
+        <v>457</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" t="s">
+        <v>459</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" t="s">
+        <v>461</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>462</v>
+      </c>
+      <c r="D26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" t="s">
+        <v>268</v>
+      </c>
+      <c r="F26" t="s">
+        <v>463</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" t="s">
+        <v>464</v>
+      </c>
+      <c r="D27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" t="s">
+        <v>268</v>
+      </c>
+      <c r="F27" t="s">
+        <v>465</v>
+      </c>
+      <c r="G27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" t="s">
+        <v>268</v>
+      </c>
+      <c r="F28" t="s">
+        <v>467</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" t="s">
+        <v>468</v>
+      </c>
+      <c r="D29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F29" t="s">
+        <v>469</v>
+      </c>
+      <c r="G29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" t="s">
+        <v>470</v>
+      </c>
+      <c r="D30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" t="s">
+        <v>268</v>
+      </c>
+      <c r="F30" t="s">
+        <v>471</v>
+      </c>
+      <c r="G30" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>4</v>
+      </c>
+      <c r="P30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F31" t="s">
+        <v>472</v>
+      </c>
+      <c r="G31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" t="s">
+        <v>474</v>
+      </c>
+      <c r="D33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" t="s">
+        <v>268</v>
+      </c>
+      <c r="F33" t="s">
+        <v>475</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>476</v>
+      </c>
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F34" t="s">
+        <v>477</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" t="s">
+        <v>4</v>
+      </c>
+      <c r="P34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s">
+        <v>478</v>
+      </c>
+      <c r="D35" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" t="s">
+        <v>268</v>
+      </c>
+      <c r="F35" t="s">
+        <v>479</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" t="s">
+        <v>480</v>
+      </c>
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" t="s">
+        <v>268</v>
+      </c>
+      <c r="F36" t="s">
+        <v>481</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" t="s">
+        <v>4</v>
+      </c>
+      <c r="M36" t="s">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>482</v>
+      </c>
+      <c r="D37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" t="s">
+        <v>483</v>
+      </c>
+      <c r="G37" t="s">
+        <v>446</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>4</v>
+      </c>
+      <c r="P37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38" t="s">
+        <v>485</v>
+      </c>
+      <c r="G38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" t="s">
+        <v>268</v>
+      </c>
+      <c r="F40" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>4</v>
+      </c>
+      <c r="P40" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" t="s">
+        <v>249</v>
+      </c>
+      <c r="D41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" t="s">
+        <v>268</v>
+      </c>
+      <c r="F41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F42" t="s">
+        <v>251</v>
+      </c>
+      <c r="G42" t="s">
+        <v>252</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" t="s">
+        <v>255</v>
+      </c>
+      <c r="G43" t="s">
+        <v>252</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" t="s">
+        <v>268</v>
+      </c>
+      <c r="F44" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" t="s">
+        <v>268</v>
+      </c>
+      <c r="F45" t="s">
+        <v>260</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>591</v>
+      </c>
+      <c r="C47" t="s">
+        <v>489</v>
+      </c>
+      <c r="D47" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F47" t="s">
+        <v>490</v>
+      </c>
+      <c r="G47" t="s">
+        <v>491</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" t="s">
+        <v>492</v>
+      </c>
+      <c r="D48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" t="s">
+        <v>268</v>
+      </c>
+      <c r="F48" t="s">
+        <v>493</v>
+      </c>
+      <c r="G48" t="s">
+        <v>494</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" t="s">
+        <v>495</v>
+      </c>
+      <c r="D49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" t="s">
+        <v>268</v>
+      </c>
+      <c r="F49" t="s">
+        <v>496</v>
+      </c>
+      <c r="G49" t="s">
+        <v>497</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" t="s">
+        <v>498</v>
+      </c>
+      <c r="D50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" t="s">
+        <v>268</v>
+      </c>
+      <c r="F50" t="s">
+        <v>499</v>
+      </c>
+      <c r="G50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" t="s">
+        <v>4</v>
+      </c>
+      <c r="M50" t="s">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>4</v>
+      </c>
+      <c r="P50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" t="s">
+        <v>500</v>
+      </c>
+      <c r="D51" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" t="s">
+        <v>268</v>
+      </c>
+      <c r="F51" t="s">
+        <v>501</v>
+      </c>
+      <c r="G51" t="s">
+        <v>502</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" t="s">
+        <v>4</v>
+      </c>
+      <c r="M51" t="s">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>4</v>
+      </c>
+      <c r="P51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>503</v>
+      </c>
+      <c r="D52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" t="s">
+        <v>268</v>
+      </c>
+      <c r="F52" t="s">
+        <v>504</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" t="s">
+        <v>505</v>
+      </c>
+      <c r="D53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" t="s">
+        <v>268</v>
+      </c>
+      <c r="F53" t="s">
+        <v>506</v>
+      </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" t="s">
+        <v>4</v>
+      </c>
+      <c r="L53" t="s">
+        <v>4</v>
+      </c>
+      <c r="M53" t="s">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>4</v>
+      </c>
+      <c r="P53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>507</v>
+      </c>
+      <c r="D54" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" t="s">
+        <v>268</v>
+      </c>
+      <c r="F54" t="s">
+        <v>508</v>
+      </c>
+      <c r="G54" t="s">
+        <v>361</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>509</v>
+      </c>
+      <c r="D55" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" t="s">
+        <v>268</v>
+      </c>
+      <c r="F55" t="s">
+        <v>510</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" t="s">
+        <v>4</v>
+      </c>
+      <c r="L55" t="s">
+        <v>4</v>
+      </c>
+      <c r="M55" t="s">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>4</v>
+      </c>
+      <c r="P55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" t="s">
+        <v>591</v>
+      </c>
+      <c r="C56" t="s">
+        <v>511</v>
+      </c>
+      <c r="D56" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" t="s">
+        <v>268</v>
+      </c>
+      <c r="F56" t="s">
+        <v>512</v>
+      </c>
+      <c r="G56" t="s">
+        <v>513</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" t="s">
+        <v>4</v>
+      </c>
+      <c r="M56" t="s">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>4</v>
+      </c>
+      <c r="O56" t="s">
+        <v>4</v>
+      </c>
+      <c r="P56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" t="s">
+        <v>591</v>
+      </c>
+      <c r="C57" t="s">
+        <v>514</v>
+      </c>
+      <c r="D57" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" t="s">
+        <v>268</v>
+      </c>
+      <c r="F57" t="s">
+        <v>515</v>
+      </c>
+      <c r="G57" t="s">
+        <v>516</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>517</v>
+      </c>
+      <c r="D58" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F58" t="s">
+        <v>518</v>
+      </c>
+      <c r="G58" t="s">
+        <v>411</v>
+      </c>
+      <c r="H58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" t="s">
+        <v>59</v>
+      </c>
+      <c r="L58" t="s">
+        <v>59</v>
+      </c>
+      <c r="M58" t="s">
+        <v>59</v>
+      </c>
+      <c r="N58" t="s">
+        <v>59</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>476</v>
+      </c>
+      <c r="D59" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" t="s">
+        <v>268</v>
+      </c>
+      <c r="F59" t="s">
+        <v>477</v>
+      </c>
+      <c r="G59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" t="s">
+        <v>519</v>
+      </c>
+      <c r="D60" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" t="s">
+        <v>268</v>
+      </c>
+      <c r="F60" t="s">
+        <v>520</v>
+      </c>
+      <c r="G60" t="s">
+        <v>414</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>478</v>
+      </c>
+      <c r="D61" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" t="s">
+        <v>268</v>
+      </c>
+      <c r="F61" t="s">
+        <v>521</v>
+      </c>
+      <c r="G61" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" t="s">
+        <v>4</v>
+      </c>
+      <c r="K61" t="s">
+        <v>4</v>
+      </c>
+      <c r="L61" t="s">
+        <v>4</v>
+      </c>
+      <c r="M61" t="s">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>4</v>
+      </c>
+      <c r="O61" t="s">
+        <v>4</v>
+      </c>
+      <c r="P61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" t="s">
+        <v>480</v>
+      </c>
+      <c r="D62" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" t="s">
+        <v>268</v>
+      </c>
+      <c r="F62" t="s">
+        <v>481</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" t="s">
+        <v>522</v>
+      </c>
+      <c r="D63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" t="s">
+        <v>268</v>
+      </c>
+      <c r="F63" t="s">
+        <v>523</v>
+      </c>
+      <c r="G63" t="s">
+        <v>364</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J63" t="s">
+        <v>4</v>
+      </c>
+      <c r="K63" t="s">
+        <v>4</v>
+      </c>
+      <c r="L63" t="s">
+        <v>4</v>
+      </c>
+      <c r="M63" t="s">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>4</v>
+      </c>
+      <c r="O63" t="s">
+        <v>4</v>
+      </c>
+      <c r="P63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" t="s">
+        <v>524</v>
+      </c>
+      <c r="D64" t="s">
+        <v>171</v>
+      </c>
+      <c r="E64" t="s">
+        <v>268</v>
+      </c>
+      <c r="F64" t="s">
+        <v>525</v>
+      </c>
+      <c r="G64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J64" t="s">
+        <v>4</v>
+      </c>
+      <c r="K64" t="s">
+        <v>4</v>
+      </c>
+      <c r="L64" t="s">
+        <v>4</v>
+      </c>
+      <c r="M64" t="s">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>4</v>
+      </c>
+      <c r="O64" t="s">
+        <v>4</v>
+      </c>
+      <c r="P64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" t="s">
+        <v>526</v>
+      </c>
+      <c r="D65" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" t="s">
+        <v>268</v>
+      </c>
+      <c r="F65" t="s">
+        <v>527</v>
+      </c>
+      <c r="G65" t="s">
+        <v>361</v>
+      </c>
+      <c r="H65" t="s">
+        <v>59</v>
+      </c>
+      <c r="I65" t="s">
+        <v>59</v>
+      </c>
+      <c r="J65" t="s">
+        <v>59</v>
+      </c>
+      <c r="K65" t="s">
+        <v>59</v>
+      </c>
+      <c r="L65" t="s">
+        <v>59</v>
+      </c>
+      <c r="M65" t="s">
+        <v>59</v>
+      </c>
+      <c r="N65" t="s">
+        <v>59</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" t="s">
+        <v>528</v>
+      </c>
+      <c r="D66" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" t="s">
+        <v>268</v>
+      </c>
+      <c r="F66" t="s">
+        <v>529</v>
+      </c>
+      <c r="G66" t="s">
+        <v>361</v>
+      </c>
+      <c r="H66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" t="s">
+        <v>530</v>
+      </c>
+      <c r="D67" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" t="s">
+        <v>268</v>
+      </c>
+      <c r="F67" t="s">
+        <v>531</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" t="s">
+        <v>4</v>
+      </c>
+      <c r="J67" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67" t="s">
+        <v>4</v>
+      </c>
+      <c r="L67" t="s">
+        <v>4</v>
+      </c>
+      <c r="M67" t="s">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>335</v>
+      </c>
+      <c r="O67" t="s">
+        <v>4</v>
+      </c>
+      <c r="P67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" t="s">
+        <v>532</v>
+      </c>
+      <c r="D68" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" t="s">
+        <v>268</v>
+      </c>
+      <c r="F68" t="s">
+        <v>533</v>
+      </c>
+      <c r="G68" t="s">
+        <v>148</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68" t="s">
+        <v>4</v>
+      </c>
+      <c r="K68" t="s">
+        <v>4</v>
+      </c>
+      <c r="L68" t="s">
+        <v>4</v>
+      </c>
+      <c r="M68" t="s">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>335</v>
+      </c>
+      <c r="O68" t="s">
+        <v>4</v>
+      </c>
+      <c r="P68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>534</v>
+      </c>
+      <c r="D69" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" t="s">
+        <v>268</v>
+      </c>
+      <c r="F69" t="s">
+        <v>535</v>
+      </c>
+      <c r="G69" t="s">
+        <v>536</v>
+      </c>
+      <c r="H69" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" t="s">
+        <v>4</v>
+      </c>
+      <c r="K69" t="s">
+        <v>4</v>
+      </c>
+      <c r="L69" t="s">
+        <v>4</v>
+      </c>
+      <c r="M69" t="s">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>4</v>
+      </c>
+      <c r="O69" t="s">
+        <v>4</v>
+      </c>
+      <c r="P69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>537</v>
+      </c>
+      <c r="D70" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" t="s">
+        <v>268</v>
+      </c>
+      <c r="F70" t="s">
+        <v>574</v>
+      </c>
+      <c r="G70" t="s">
+        <v>361</v>
+      </c>
+      <c r="H70" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70" t="s">
+        <v>4</v>
+      </c>
+      <c r="K70" t="s">
+        <v>4</v>
+      </c>
+      <c r="L70" t="s">
+        <v>4</v>
+      </c>
+      <c r="M70" t="s">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>4</v>
+      </c>
+      <c r="P70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" t="s">
+        <v>538</v>
+      </c>
+      <c r="D71" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" t="s">
+        <v>268</v>
+      </c>
+      <c r="F71" t="s">
+        <v>575</v>
+      </c>
+      <c r="G71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" t="s">
+        <v>4</v>
+      </c>
+      <c r="J71" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" t="s">
+        <v>4</v>
+      </c>
+      <c r="L71" t="s">
+        <v>4</v>
+      </c>
+      <c r="M71" t="s">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>4</v>
+      </c>
+      <c r="P71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" t="s">
+        <v>539</v>
+      </c>
+      <c r="D72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" t="s">
+        <v>268</v>
+      </c>
+      <c r="F72" t="s">
+        <v>540</v>
+      </c>
+      <c r="G72" t="s">
+        <v>541</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" t="s">
+        <v>542</v>
+      </c>
+      <c r="D73" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" t="s">
+        <v>268</v>
+      </c>
+      <c r="F73" t="s">
+        <v>543</v>
+      </c>
+      <c r="G73" t="s">
+        <v>544</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" t="s">
+        <v>4</v>
+      </c>
+      <c r="J73" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73" t="s">
+        <v>4</v>
+      </c>
+      <c r="L73" t="s">
+        <v>4</v>
+      </c>
+      <c r="M73" t="s">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>4</v>
+      </c>
+      <c r="O73" t="s">
+        <v>4</v>
+      </c>
+      <c r="P73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" t="s">
+        <v>545</v>
+      </c>
+      <c r="D74" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" t="s">
+        <v>268</v>
+      </c>
+      <c r="F74" t="s">
+        <v>546</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" t="s">
+        <v>4</v>
+      </c>
+      <c r="J74" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" t="s">
+        <v>4</v>
+      </c>
+      <c r="L74" t="s">
+        <v>4</v>
+      </c>
+      <c r="M74" t="s">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>4</v>
+      </c>
+      <c r="O74" t="s">
+        <v>4</v>
+      </c>
+      <c r="P74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" t="s">
+        <v>547</v>
+      </c>
+      <c r="D75" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75" t="s">
+        <v>268</v>
+      </c>
+      <c r="F75" t="s">
+        <v>548</v>
+      </c>
+      <c r="G75" t="s">
+        <v>364</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" t="s">
+        <v>4</v>
+      </c>
+      <c r="J75" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75" t="s">
+        <v>4</v>
+      </c>
+      <c r="L75" t="s">
+        <v>4</v>
+      </c>
+      <c r="M75" t="s">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>4</v>
+      </c>
+      <c r="O75" t="s">
+        <v>4</v>
+      </c>
+      <c r="P75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" t="s">
+        <v>549</v>
+      </c>
+      <c r="D76" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" t="s">
+        <v>268</v>
+      </c>
+      <c r="F76" t="s">
+        <v>550</v>
+      </c>
+      <c r="G76" t="s">
+        <v>494</v>
+      </c>
+      <c r="H76" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" t="s">
+        <v>551</v>
+      </c>
+      <c r="D77" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77" t="s">
+        <v>268</v>
+      </c>
+      <c r="F77" t="s">
+        <v>552</v>
+      </c>
+      <c r="G77" t="s">
+        <v>187</v>
+      </c>
+      <c r="H77" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77" t="s">
+        <v>4</v>
+      </c>
+      <c r="J77" t="s">
+        <v>4</v>
+      </c>
+      <c r="K77" t="s">
+        <v>4</v>
+      </c>
+      <c r="L77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M77" t="s">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>4</v>
+      </c>
+      <c r="O77" t="s">
+        <v>4</v>
+      </c>
+      <c r="P77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
+        <v>553</v>
+      </c>
+      <c r="D78" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" t="s">
+        <v>268</v>
+      </c>
+      <c r="F78" t="s">
+        <v>554</v>
+      </c>
+      <c r="G78" t="s">
+        <v>187</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J78" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78" t="s">
+        <v>4</v>
+      </c>
+      <c r="L78" t="s">
+        <v>4</v>
+      </c>
+      <c r="M78" t="s">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>4</v>
+      </c>
+      <c r="P78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" t="s">
+        <v>555</v>
+      </c>
+      <c r="D79" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" t="s">
+        <v>268</v>
+      </c>
+      <c r="F79" t="s">
+        <v>556</v>
+      </c>
+      <c r="G79" t="s">
+        <v>557</v>
+      </c>
+      <c r="H79" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" t="s">
+        <v>4</v>
+      </c>
+      <c r="J79" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79" t="s">
+        <v>4</v>
+      </c>
+      <c r="L79" t="s">
+        <v>4</v>
+      </c>
+      <c r="M79" t="s">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>4</v>
+      </c>
+      <c r="P79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s">
+        <v>558</v>
+      </c>
+      <c r="D80" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" t="s">
+        <v>268</v>
+      </c>
+      <c r="F80" t="s">
+        <v>559</v>
+      </c>
+      <c r="G80" t="s">
+        <v>364</v>
+      </c>
+      <c r="H80" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" t="s">
+        <v>4</v>
+      </c>
+      <c r="J80" t="s">
+        <v>4</v>
+      </c>
+      <c r="K80" t="s">
+        <v>4</v>
+      </c>
+      <c r="L80" t="s">
+        <v>4</v>
+      </c>
+      <c r="M80" t="s">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>4</v>
+      </c>
+      <c r="P80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" t="s">
+        <v>560</v>
+      </c>
+      <c r="D81" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" t="s">
+        <v>561</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" t="s">
+        <v>562</v>
+      </c>
+      <c r="D82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" t="s">
+        <v>268</v>
+      </c>
+      <c r="F82" t="s">
+        <v>563</v>
+      </c>
+      <c r="G82" t="s">
+        <v>75</v>
+      </c>
+      <c r="H82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82" t="s">
+        <v>4</v>
+      </c>
+      <c r="J82" t="s">
+        <v>4</v>
+      </c>
+      <c r="K82" t="s">
+        <v>4</v>
+      </c>
+      <c r="L82" t="s">
+        <v>4</v>
+      </c>
+      <c r="M82" t="s">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>4</v>
+      </c>
+      <c r="O82" t="s">
+        <v>4</v>
+      </c>
+      <c r="P82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>564</v>
+      </c>
+      <c r="D83" t="s">
+        <v>171</v>
+      </c>
+      <c r="E83" t="s">
+        <v>268</v>
+      </c>
+      <c r="F83" t="s">
+        <v>565</v>
+      </c>
+      <c r="G83" t="s">
+        <v>427</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" t="s">
+        <v>484</v>
+      </c>
+      <c r="D84" t="s">
+        <v>171</v>
+      </c>
+      <c r="E84" t="s">
+        <v>268</v>
+      </c>
+      <c r="F84" t="s">
+        <v>485</v>
+      </c>
+      <c r="G84" t="s">
+        <v>106</v>
+      </c>
+      <c r="H84" t="s">
+        <v>4</v>
+      </c>
+      <c r="I84" t="s">
+        <v>4</v>
+      </c>
+      <c r="J84" t="s">
+        <v>4</v>
+      </c>
+      <c r="K84" t="s">
+        <v>4</v>
+      </c>
+      <c r="L84" t="s">
+        <v>4</v>
+      </c>
+      <c r="M84" t="s">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>4</v>
+      </c>
+      <c r="O84" t="s">
+        <v>4</v>
+      </c>
+      <c r="P84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>591</v>
+      </c>
+      <c r="C85" t="s">
+        <v>566</v>
+      </c>
+      <c r="D85" t="s">
+        <v>171</v>
+      </c>
+      <c r="E85" t="s">
+        <v>268</v>
+      </c>
+      <c r="F85" t="s">
+        <v>567</v>
+      </c>
+      <c r="G85" t="s">
+        <v>516</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85" t="s">
+        <v>4</v>
+      </c>
+      <c r="J85" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85" t="s">
+        <v>4</v>
+      </c>
+      <c r="L85" t="s">
+        <v>4</v>
+      </c>
+      <c r="M85" t="s">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>4</v>
+      </c>
+      <c r="P85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" t="s">
+        <v>568</v>
+      </c>
+      <c r="D86" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" t="s">
+        <v>268</v>
+      </c>
+      <c r="F86" t="s">
+        <v>569</v>
+      </c>
+      <c r="G86" t="s">
+        <v>67</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86" t="s">
+        <v>4</v>
+      </c>
+      <c r="J86" t="s">
+        <v>4</v>
+      </c>
+      <c r="K86" t="s">
+        <v>4</v>
+      </c>
+      <c r="L86" t="s">
+        <v>4</v>
+      </c>
+      <c r="M86" t="s">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>4</v>
+      </c>
+      <c r="P86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="s">
+        <v>570</v>
+      </c>
+      <c r="D87" t="s">
+        <v>171</v>
+      </c>
+      <c r="E87" t="s">
+        <v>268</v>
+      </c>
+      <c r="F87" t="s">
+        <v>571</v>
+      </c>
+      <c r="G87" t="s">
+        <v>67</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87" t="s">
+        <v>4</v>
+      </c>
+      <c r="J87" t="s">
+        <v>4</v>
+      </c>
+      <c r="K87" t="s">
+        <v>4</v>
+      </c>
+      <c r="L87" t="s">
+        <v>4</v>
+      </c>
+      <c r="M87" t="s">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>4</v>
+      </c>
+      <c r="P87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" t="s">
+        <v>572</v>
+      </c>
+      <c r="D88" t="s">
+        <v>171</v>
+      </c>
+      <c r="E88" t="s">
+        <v>268</v>
+      </c>
+      <c r="F88" t="s">
+        <v>573</v>
+      </c>
+      <c r="G88" t="s">
+        <v>98</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88" t="s">
+        <v>4</v>
+      </c>
+      <c r="J88" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88" t="s">
+        <v>4</v>
+      </c>
+      <c r="L88" t="s">
+        <v>4</v>
+      </c>
+      <c r="M88" t="s">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>4</v>
+      </c>
+      <c r="P88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" t="s">
+        <v>577</v>
+      </c>
+      <c r="D90" t="s">
+        <v>171</v>
+      </c>
+      <c r="E90" t="s">
+        <v>268</v>
+      </c>
+      <c r="F90" t="s">
+        <v>578</v>
+      </c>
+      <c r="G90" t="s">
+        <v>106</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90" t="s">
+        <v>4</v>
+      </c>
+      <c r="J90" t="s">
+        <v>4</v>
+      </c>
+      <c r="K90" t="s">
+        <v>4</v>
+      </c>
+      <c r="L90" t="s">
+        <v>4</v>
+      </c>
+      <c r="M90" t="s">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>4</v>
+      </c>
+      <c r="P90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>170</v>
+      </c>
+      <c r="B92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" t="s">
+        <v>580</v>
+      </c>
+      <c r="D92" t="s">
+        <v>171</v>
+      </c>
+      <c r="E92" t="s">
+        <v>268</v>
+      </c>
+      <c r="F92" t="s">
+        <v>581</v>
+      </c>
+      <c r="G92" t="s">
+        <v>80</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" t="s">
+        <v>4</v>
+      </c>
+      <c r="J92" t="s">
+        <v>4</v>
+      </c>
+      <c r="K92" t="s">
+        <v>4</v>
+      </c>
+      <c r="L92" t="s">
+        <v>4</v>
+      </c>
+      <c r="M92" t="s">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>4</v>
+      </c>
+      <c r="O92" t="s">
+        <v>4</v>
+      </c>
+      <c r="P92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" t="s">
+        <v>582</v>
+      </c>
+      <c r="D93" t="s">
+        <v>171</v>
+      </c>
+      <c r="E93" t="s">
+        <v>268</v>
+      </c>
+      <c r="F93" t="s">
+        <v>583</v>
+      </c>
+      <c r="G93" t="s">
+        <v>234</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" t="s">
+        <v>4</v>
+      </c>
+      <c r="J93" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93" t="s">
+        <v>4</v>
+      </c>
+      <c r="L93" t="s">
+        <v>4</v>
+      </c>
+      <c r="M93" t="s">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>4</v>
+      </c>
+      <c r="O93" t="s">
+        <v>4</v>
+      </c>
+      <c r="P93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" t="s">
+        <v>584</v>
+      </c>
+      <c r="D94" t="s">
+        <v>171</v>
+      </c>
+      <c r="E94" t="s">
+        <v>268</v>
+      </c>
+      <c r="F94" t="s">
+        <v>585</v>
+      </c>
+      <c r="G94" t="s">
+        <v>586</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" t="s">
+        <v>175</v>
+      </c>
+      <c r="C95" t="s">
+        <v>304</v>
+      </c>
+      <c r="D95" t="s">
+        <v>171</v>
+      </c>
+      <c r="E95" t="s">
+        <v>268</v>
+      </c>
+      <c r="F95" t="s">
+        <v>587</v>
+      </c>
+      <c r="G95" t="s">
+        <v>148</v>
+      </c>
+      <c r="H95" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95" t="s">
+        <v>4</v>
+      </c>
+      <c r="J95" t="s">
+        <v>4</v>
+      </c>
+      <c r="K95" t="s">
+        <v>4</v>
+      </c>
+      <c r="L95" t="s">
+        <v>4</v>
+      </c>
+      <c r="M95" t="s">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>4</v>
+      </c>
+      <c r="P95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" t="s">
+        <v>588</v>
+      </c>
+      <c r="D96" t="s">
+        <v>171</v>
+      </c>
+      <c r="E96" t="s">
+        <v>268</v>
+      </c>
+      <c r="F96" t="s">
+        <v>589</v>
+      </c>
+      <c r="G96" t="s">
+        <v>590</v>
+      </c>
+      <c r="H96" t="s">
+        <v>4</v>
+      </c>
+      <c r="I96" t="s">
+        <v>4</v>
+      </c>
+      <c r="J96" t="s">
+        <v>4</v>
+      </c>
+      <c r="K96" t="s">
+        <v>4</v>
+      </c>
+      <c r="L96" t="s">
+        <v>4</v>
+      </c>
+      <c r="M96" t="s">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>4</v>
+      </c>
+      <c r="P96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:P96"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="A2:G28"/>
     </sheetView>
   </sheetViews>
